--- a/dados_realiz-2024_tratados.xlsx
+++ b/dados_realiz-2024_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_064DF1ACD3E0D00C0FFA3711595ED87656CDF7CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044440D2-F05E-41B7-A44A-027AD5F7AAC7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3B6D53B9D3905E58E7FA2611595ED87656CD67C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C433B75B-91A8-4DE0-8917-D73C5641D211}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
         <v>898.16</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -607,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="O2">
-        <v>6323.97</v>
+        <v>6623.97</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>706.16</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>286.82</v>
+        <v>311.82</v>
       </c>
       <c r="O3">
-        <v>3441.83</v>
+        <v>3741.83</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>112.55</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="O9">
-        <v>1350.62</v>
+        <v>1650.62</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/dados_realiz-2024_tratados.xlsx
+++ b/dados_realiz-2024_tratados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3B6D53B9D3905E58E7FA2611595ED87656CD67C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C433B75B-91A8-4DE0-8917-D73C5641D211}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_6959B1BBD3605E02BF583F11595ED87656CD8759" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,10 @@
     <t>Média</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
+    <t>Total Anual</t>
+  </si>
+  <si>
+    <t>Total Geral Mensal</t>
   </si>
   <si>
     <t>Total Renda Fixa</t>
@@ -511,13 +511,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/dados_realiz-2024_tratados.xlsx
+++ b/dados_realiz-2024_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>Total Anual</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Médio Pago</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +563,7 @@
       <c r="O2" t="n">
         <v>6623.97</v>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +613,7 @@
       <c r="O3" t="n">
         <v>3741.83</v>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +663,7 @@
       <c r="O4" t="n">
         <v>3661.26</v>
       </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -705,6 +713,7 @@
       <c r="O5" t="n">
         <v>80.56999999999999</v>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -754,6 +763,7 @@
       <c r="O6" t="n">
         <v>1132.4</v>
       </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,6 +813,9 @@
       <c r="O7" t="n">
         <v>19</v>
       </c>
+      <c r="P7" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -852,6 +865,9 @@
       <c r="O8" t="n">
         <v>106.5</v>
       </c>
+      <c r="P8" t="n">
+        <v>3351.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,6 +917,9 @@
       <c r="O9" t="n">
         <v>179.9</v>
       </c>
+      <c r="P9" t="n">
+        <v>3227.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -950,6 +969,9 @@
       <c r="O10" t="n">
         <v>193.5</v>
       </c>
+      <c r="P10" t="n">
+        <v>3219.44</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -999,6 +1021,9 @@
       <c r="O11" t="n">
         <v>201</v>
       </c>
+      <c r="P11" t="n">
+        <v>2995.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1048,6 +1073,9 @@
       <c r="O12" t="n">
         <v>176</v>
       </c>
+      <c r="P12" t="n">
+        <v>3043.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1097,6 +1125,9 @@
       <c r="O13" t="n">
         <v>130</v>
       </c>
+      <c r="P13" t="n">
+        <v>3042.39</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1146,30 +1177,33 @@
       <c r="O14" t="n">
         <v>126.5</v>
       </c>
+      <c r="P14" t="n">
+        <v>3018.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total Div Ações</t>
+          <t>VSHO11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>200.95</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>59.31</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>118.95</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1190,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>40.52</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>486.24</v>
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TAEE11 DIV</t>
+          <t>Total Div Ações</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1209,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>200.95</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.31</v>
       </c>
       <c r="F16" t="n">
         <v>118.95</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>37.54</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1239,20 +1276,21 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>15.7</v>
+        <v>40.52</v>
       </c>
       <c r="O16" t="n">
-        <v>188.44</v>
-      </c>
+        <v>486.24</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TAEE11 J/C</t>
+          <t>TAEE11 DIV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1264,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>118.95</v>
       </c>
       <c r="G17" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1288,16 +1326,17 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.13</v>
+        <v>15.7</v>
       </c>
       <c r="O17" t="n">
-        <v>37.54</v>
-      </c>
+        <v>188.44</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VALE DIV</t>
+          <t>TAEE11 J/C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1307,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1316,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>37.54</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1337,16 +1376,17 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14.83</v>
+        <v>3.13</v>
       </c>
       <c r="O18" t="n">
-        <v>178</v>
-      </c>
+        <v>37.54</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VALE J/C</t>
+          <t>VALE DIV</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1356,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1386,16 +1426,17 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>14.83</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WEGE DIV</t>
+          <t>VALE J/C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1405,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.68</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1435,16 +1476,17 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WEGE J/C</t>
+          <t>WEGE DIV</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1454,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>6.27</v>
+        <v>16.68</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1484,16 +1526,17 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.52</v>
+        <v>1.39</v>
       </c>
       <c r="O21" t="n">
-        <v>6.27</v>
-      </c>
+        <v>16.68</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UNIP DIV</t>
+          <t>WEGE J/C</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1503,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="E22" t="n">
-        <v>59.31</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1533,20 +1576,21 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4.94</v>
+        <v>0.52</v>
       </c>
       <c r="O22" t="n">
-        <v>59.31</v>
-      </c>
+        <v>6.27</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total Crypto</t>
+          <t>UNIP DIV</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1263.5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1555,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>59.31</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1582,16 +1626,17 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>105.29</v>
+        <v>4.94</v>
       </c>
       <c r="O23" t="n">
-        <v>1263.5</v>
-      </c>
+        <v>59.31</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
+          <t>Total Crypto</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1636,6 +1681,57 @@
       <c r="O24" t="n">
         <v>1263.5</v>
       </c>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Bitcoin</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1263.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>105.29</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1263.5</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados_realiz-2024_tratados.xlsx
+++ b/dados_realiz-2024_tratados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,29 +518,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total Geral Mensal</t>
+          <t>CDB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2803.32</v>
+        <v>1367.95</v>
       </c>
       <c r="C2" t="n">
-        <v>586.3100000000001</v>
+        <v>420.54</v>
       </c>
       <c r="D2" t="n">
-        <v>369.06</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>257.84</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1185.52</v>
+        <v>842.75</v>
       </c>
       <c r="G2" t="n">
-        <v>223.76</v>
+        <v>30.02</v>
       </c>
       <c r="H2" t="n">
-        <v>898.16</v>
+        <v>700</v>
       </c>
       <c r="I2" t="n">
         <v>300</v>
@@ -558,24 +558,24 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>552</v>
+        <v>305.11</v>
       </c>
       <c r="O2" t="n">
-        <v>6623.97</v>
+        <v>3661.26</v>
       </c>
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Renda Fixa</t>
+          <t>Outros Renda Fixa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1369.33</v>
+        <v>1.38</v>
       </c>
       <c r="C3" t="n">
-        <v>431.21</v>
+        <v>10.67</v>
       </c>
       <c r="D3" t="n">
         <v>29.91</v>
@@ -584,16 +584,16 @@
         <v>16.13</v>
       </c>
       <c r="F3" t="n">
-        <v>859.0699999999999</v>
+        <v>16.32</v>
       </c>
       <c r="G3" t="n">
-        <v>30.02</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>706.16</v>
+        <v>6.16</v>
       </c>
       <c r="I3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,42 +608,42 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>311.82</v>
+        <v>6.71</v>
       </c>
       <c r="O3" t="n">
-        <v>3741.83</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CDB</t>
+          <t>MXRF11</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1367.95</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>420.54</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>842.75</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>30.02</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>700</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -658,39 +658,41 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>305.11</v>
+        <v>1.58</v>
       </c>
       <c r="O4" t="n">
-        <v>3661.26</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Outros Renda Fixa</t>
+          <t>HGLG11</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.38</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>10.67</v>
+        <v>15.1</v>
       </c>
       <c r="D5" t="n">
-        <v>29.91</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>16.13</v>
+        <v>15.2</v>
       </c>
       <c r="F5" t="n">
-        <v>16.32</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="H5" t="n">
-        <v>6.16</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -708,39 +710,41 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.71</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>80.56999999999999</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>106.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3351.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total Fii's</t>
+          <t>RZAT11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>155.1</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>138.2</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>182.4</v>
+        <v>40.7</v>
       </c>
       <c r="F6" t="n">
-        <v>207.5</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>156.2</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -758,39 +762,41 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>94.37</v>
+        <v>14.99</v>
       </c>
       <c r="O6" t="n">
-        <v>1132.4</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>179.9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3227.14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MXRF11</t>
+          <t>TGAR11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>42.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -808,41 +814,41 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.58</v>
+        <v>16.12</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>193.5</v>
       </c>
       <c r="P7" t="n">
-        <v>205.2</v>
+        <v>3219.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HGLG11</t>
+          <t>KIVO11</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
         <v>15</v>
       </c>
-      <c r="C8" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.2</v>
-      </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -860,41 +866,41 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>8.880000000000001</v>
+        <v>16.75</v>
       </c>
       <c r="O8" t="n">
-        <v>106.5</v>
+        <v>201</v>
       </c>
       <c r="P8" t="n">
-        <v>3351.6</v>
+        <v>2995.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RZAT11</t>
+          <t>XPIN11</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -912,41 +918,41 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.99</v>
+        <v>14.67</v>
       </c>
       <c r="O9" t="n">
-        <v>179.9</v>
+        <v>176</v>
       </c>
       <c r="P9" t="n">
-        <v>3227.14</v>
+        <v>3043.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TGAR11</t>
+          <t>TRXF11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>42.5</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -964,41 +970,41 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>16.12</v>
+        <v>10.83</v>
       </c>
       <c r="O10" t="n">
-        <v>193.5</v>
+        <v>130</v>
       </c>
       <c r="P10" t="n">
-        <v>3219.44</v>
+        <v>3042.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KIVO11</t>
+          <t>FIGS11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
+        <v>27</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="F11" t="n">
-        <v>32</v>
-      </c>
-      <c r="G11" t="n">
-        <v>32</v>
-      </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1016,41 +1022,41 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>16.75</v>
+        <v>10.54</v>
       </c>
       <c r="O11" t="n">
-        <v>201</v>
+        <v>126.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.3</v>
+        <v>3018.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XPIN11</t>
+          <t>VSHO11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1068,41 +1074,41 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14.67</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3043.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TRXF11</t>
+          <t>TAEE11 DIV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>118.95</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1120,41 +1126,39 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>10.83</v>
+        <v>15.7</v>
       </c>
       <c r="O13" t="n">
-        <v>130</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3042.39</v>
-      </c>
+        <v>188.44</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FIGS11</t>
+          <t>TAEE11 J/C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>37.54</v>
       </c>
       <c r="H14" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1172,19 +1176,17 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>10.54</v>
+        <v>3.13</v>
       </c>
       <c r="O14" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3018.54</v>
-      </c>
+        <v>37.54</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VSHO11</t>
+          <t>VALE DIV</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1194,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1224,38 +1226,36 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>14.83</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Total Div Ações</t>
+          <t>VALE J/C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>200.95</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>59.31</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.95</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1276,33 +1276,33 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>40.52</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>486.24</v>
+        <v>0</v>
       </c>
       <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TAEE11 DIV</t>
+          <t>WEGE DIV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69.48999999999999</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>16.68</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>118.95</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1326,17 +1326,17 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>15.7</v>
+        <v>1.39</v>
       </c>
       <c r="O17" t="n">
-        <v>188.44</v>
+        <v>16.68</v>
       </c>
       <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAEE11 J/C</t>
+          <t>WEGE J/C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>37.54</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1376,17 +1376,17 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.13</v>
+        <v>0.52</v>
       </c>
       <c r="O18" t="n">
-        <v>37.54</v>
+        <v>6.27</v>
       </c>
       <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VALE DIV</t>
+          <t>UNIP DIV</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.31</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1426,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>14.83</v>
+        <v>4.94</v>
       </c>
       <c r="O19" t="n">
-        <v>178</v>
+        <v>59.31</v>
       </c>
       <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VALE J/C</t>
+          <t>Bitcoin</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1263.5</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1476,262 +1476,12 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>105.29</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1263.5</v>
       </c>
       <c r="P20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>WEGE DIV</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O21" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WEGE J/C</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O22" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>UNIP DIV</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="O23" t="n">
-        <v>59.31</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Total Crypto</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1263.5</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>105.29</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1263.5</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Bitcoin</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1263.5</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>105.29</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1263.5</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
